--- a/data_inputs/DIET/counterfactual_intake/RESOURCES/DGA+/Org dietary recommendations - operationalized.xlsx
+++ b/data_inputs/DIET/counterfactual_intake/RESOURCES/DGA+/Org dietary recommendations - operationalized.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bmb73/Library/CloudStorage/Box-Box/lasting_aim_3/model development/data_final/in/ALL PILLARS/Counterfactual intake/DGA+/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bmb73/Library/CloudStorage/Box-Box/lasting_aim_3/model development/methods_manual/data_inputs/DIET/counterfactual_intake/RESOURCES/DGA+/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C339193-1435-8C47-91CD-DE7490494B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8865FA-2047-AA4D-B79A-3A1D4095C0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19520" activeTab="2" xr2:uid="{7E726A92-9484-7448-AF7D-3B1AA4B43A28}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{7E726A92-9484-7448-AF7D-3B1AA4B43A28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sumary of Guidelines" sheetId="1" r:id="rId1"/>
@@ -555,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -603,7 +603,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -920,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C82930F-C9C9-C047-9FB6-F5F649B690FB}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="177" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1140,7 +1139,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="170" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410FEEF1-9878-7141-9307-5AC2DCDAF7BB}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="248" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="250" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1636,8 +1635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6177783-56B0-0949-97E2-C8A66DA0A323}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="185" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A2" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1871,13 +1870,13 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="19" t="s">
+      <c r="B19" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19">
         <v>27</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" t="s">
         <v>86</v>
       </c>
       <c r="E19" t="s">
